--- a/dtpu_configurations/only_integer32/100mhz/mxu_3x3/power.xlsx
+++ b/dtpu_configurations/only_integer32/100mhz/mxu_3x3/power.xlsx
@@ -175,19 +175,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.03265012800693512</v>
+        <v>0.044515639543533325</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.018690617755055428</v>
+        <v>0.01654736138880253</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.013089788146317005</v>
+        <v>0.01312394067645073</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.006562624126672745</v>
+        <v>0.008532099425792694</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>5.975182830297854E-6</v>
+        <v>7.676489767618477E-4</v>
       </c>
       <c r="G2" t="n" s="4">
         <v>0.0021401061676442623</v>
@@ -199,10 +199,10 @@
         <v>1.2619483470916748</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.12554694712162018</v>
+        <v>0.1277734935283661</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.462587594985962</v>
+        <v>1.4773017168045044</v>
       </c>
     </row>
   </sheetData>
